--- a/NatmiData/natmiOut_TPM/YoungD7/LR-pairs_lrc2p/Cxcl5-Cxcr2.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD7/LR-pairs_lrc2p/Cxcl5-Cxcr2.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="25">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -79,7 +79,7 @@
     <t>FAPs</t>
   </si>
   <si>
-    <t>MuSCs</t>
+    <t>Resolving-Mac</t>
   </si>
   <si>
     <t>Cxcl5</t>
@@ -89,9 +89,6 @@
   </si>
   <si>
     <t>ECs</t>
-  </si>
-  <si>
-    <t>Resolving-Mac</t>
   </si>
 </sst>
 </file>
@@ -543,10 +540,10 @@
         <v>14.108621</v>
       </c>
       <c r="I2">
-        <v>0.963342498385851</v>
+        <v>0.9961712500318616</v>
       </c>
       <c r="J2">
-        <v>0.963342498385851</v>
+        <v>0.9961712500318616</v>
       </c>
       <c r="K2">
         <v>2</v>
@@ -555,28 +552,28 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M2">
-        <v>141.0573636666666</v>
+        <v>0.03927866666666666</v>
       </c>
       <c r="N2">
-        <v>423.172091</v>
+        <v>0.117836</v>
       </c>
       <c r="O2">
-        <v>0.9867410057784561</v>
+        <v>0.7432525340448212</v>
       </c>
       <c r="P2">
-        <v>0.9867410057784561</v>
+        <v>0.7432525340448213</v>
       </c>
       <c r="Q2">
-        <v>663.3749610773899</v>
+        <v>0.1847226071284444</v>
       </c>
       <c r="R2">
-        <v>5970.37464969651</v>
+        <v>1.662503464156</v>
       </c>
       <c r="S2">
-        <v>0.9505695457663853</v>
+        <v>0.7404068059287783</v>
       </c>
       <c r="T2">
-        <v>0.9505695457663853</v>
+        <v>0.7404068059287784</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,7 +587,7 @@
         <v>23</v>
       </c>
       <c r="D3" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="E3">
         <v>3</v>
@@ -605,40 +602,40 @@
         <v>14.108621</v>
       </c>
       <c r="I3">
-        <v>0.963342498385851</v>
+        <v>0.9961712500318616</v>
       </c>
       <c r="J3">
-        <v>0.963342498385851</v>
+        <v>0.9961712500318616</v>
       </c>
       <c r="K3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L3">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M3">
-        <v>1.89541</v>
+        <v>0.01356833333333333</v>
       </c>
       <c r="N3">
-        <v>5.686230000000001</v>
+        <v>0.040705</v>
       </c>
       <c r="O3">
-        <v>0.01325899422154386</v>
+        <v>0.2567474659551788</v>
       </c>
       <c r="P3">
-        <v>0.01325899422154386</v>
+        <v>0.2567474659551788</v>
       </c>
       <c r="Q3">
-        <v>8.913873776536667</v>
+        <v>0.06381015753388888</v>
       </c>
       <c r="R3">
-        <v>80.22486398883001</v>
+        <v>0.5742914178049999</v>
       </c>
       <c r="S3">
-        <v>0.01277295261946562</v>
+        <v>0.2557644441030832</v>
       </c>
       <c r="T3">
-        <v>0.01277295261946562</v>
+        <v>0.2557644441030832</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -661,16 +658,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G4">
-        <v>0.1789556666666667</v>
+        <v>0.01807533333333334</v>
       </c>
       <c r="H4">
-        <v>0.536867</v>
+        <v>0.054226</v>
       </c>
       <c r="I4">
-        <v>0.03665750161414901</v>
+        <v>0.003828749968138469</v>
       </c>
       <c r="J4">
-        <v>0.03665750161414901</v>
+        <v>0.003828749968138468</v>
       </c>
       <c r="K4">
         <v>2</v>
@@ -679,28 +676,28 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M4">
-        <v>141.0573636666666</v>
+        <v>0.03927866666666666</v>
       </c>
       <c r="N4">
-        <v>423.172091</v>
+        <v>0.117836</v>
       </c>
       <c r="O4">
-        <v>0.9867410057784561</v>
+        <v>0.7432525340448212</v>
       </c>
       <c r="P4">
-        <v>0.9867410057784561</v>
+        <v>0.7432525340448213</v>
       </c>
       <c r="Q4">
-        <v>25.24301455321077</v>
+        <v>0.0007099749928888889</v>
       </c>
       <c r="R4">
-        <v>227.187130978897</v>
+        <v>0.006389774936000001</v>
       </c>
       <c r="S4">
-        <v>0.03617146001207078</v>
+        <v>0.002845728116042946</v>
       </c>
       <c r="T4">
-        <v>0.03617146001207078</v>
+        <v>0.002845728116042945</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -714,7 +711,7 @@
         <v>23</v>
       </c>
       <c r="D5" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="E5">
         <v>1</v>
@@ -723,46 +720,46 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G5">
-        <v>0.1789556666666667</v>
+        <v>0.01807533333333334</v>
       </c>
       <c r="H5">
-        <v>0.536867</v>
+        <v>0.054226</v>
       </c>
       <c r="I5">
-        <v>0.03665750161414901</v>
+        <v>0.003828749968138469</v>
       </c>
       <c r="J5">
-        <v>0.03665750161414901</v>
+        <v>0.003828749968138468</v>
       </c>
       <c r="K5">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L5">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M5">
-        <v>1.89541</v>
+        <v>0.01356833333333333</v>
       </c>
       <c r="N5">
-        <v>5.686230000000001</v>
+        <v>0.040705</v>
       </c>
       <c r="O5">
-        <v>0.01325899422154386</v>
+        <v>0.2567474659551788</v>
       </c>
       <c r="P5">
-        <v>0.01325899422154386</v>
+        <v>0.2567474659551788</v>
       </c>
       <c r="Q5">
-        <v>0.3391943601566667</v>
+        <v>0.0002452521477777778</v>
       </c>
       <c r="R5">
-        <v>3.05274924141</v>
+        <v>0.00220726933</v>
       </c>
       <c r="S5">
-        <v>0.0004860416020782364</v>
+        <v>0.0009830218520955234</v>
       </c>
       <c r="T5">
-        <v>0.0004860416020782364</v>
+        <v>0.0009830218520955232</v>
       </c>
     </row>
   </sheetData>
